--- a/資料/Kitchen_Timer_仕様書.xlsx
+++ b/資料/Kitchen_Timer_仕様書.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\箱石\技術研修\PICマイコン研修\C編\comp.Kitchen_Timer\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{393FD5AD-6735-4D54-B4F0-EAEB5C012515}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA6C6B8-794A-47B3-9AF4-A796EF5D304D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="0" windowWidth="15336" windowHeight="9000" xr2:uid="{75F12DC7-B026-4491-BBFB-B3B7FB378D59}"/>
+    <workbookView xWindow="-13932" yWindow="0" windowWidth="23256" windowHeight="12576" xr2:uid="{75F12DC7-B026-4491-BBFB-B3B7FB378D59}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="仕様書" sheetId="1" r:id="rId1"/>
+    <sheet name="構成図" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,9 +33,480 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+  <si>
+    <t>キッチンタイマー 仕様書</t>
+    <rPh sb="9" eb="12">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「キッチンタイマー」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要：</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このシステムは、ユーザが押しボタンを使って任意に時間を指定し、指定した時間が経過した時に、ブザー音とLCDでお知らせするシステムである。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構成：</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シート2 参照</t>
+    <rPh sb="5" eb="7">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能：</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウントダウンのスタート・ストップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウントダウンのリセット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウント時間設定で時間を設定したあと、ボタンを押すとカウントダウンがスタートし、カウントダウン中に押すと、カウントダウンが一時的にストップする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能名</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能説明</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウントダウン中にボタン1とボタン2を押すと、最初に設定した値になる。</t>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>任意のカウント時間をボタンで設定できる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残り時間をLCDで表示する</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残り時間の表示</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウントの通知</t>
+    <rPh sb="5" eb="7">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウント時間の設定</t>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入出力設定：</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウシュツリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動作</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>短く押す</t>
+    <rPh sb="0" eb="1">
+      <t>ミジカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長く押し続ける</t>
+    <rPh sb="0" eb="1">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン2と一緒に押す</t>
+    <rPh sb="5" eb="7">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン1と一緒に押す</t>
+    <rPh sb="5" eb="7">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「分」カウントを1増やす、カウント通知を解除する</t>
+    <rPh sb="1" eb="2">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定時間をリセットする</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウントダウンのスタート・ストップを切り替える、カウント通知を解除する</t>
+    <rPh sb="18" eb="19">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「秒」カウントを1増やす、カウント通知を解除する</t>
+    <rPh sb="9" eb="10">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一定の間隔で「秒」カウントを10ずつ増やす</t>
+    <rPh sb="0" eb="2">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一定の間隔で「分」カウントを10ずつ増やす</t>
+    <rPh sb="0" eb="2">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ピッ」と1回短く鳴動する</t>
+    <rPh sb="6" eb="7">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミジカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>メイドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン1 or 2 or 3が押される</t>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ピーッ」と1回長く鳴動する</t>
+    <rPh sb="7" eb="8">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>メイドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウント時間設定で指定した時間が経過する</t>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ピピピピッ、ピピピピッ、ピピピピッ、ピピピピッ」と短く4回鳴動し少し待つ、を繰り返す</t>
+    <rPh sb="26" eb="27">
+      <t>ミジカ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>メイドウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LCD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>常に</t>
+    <rPh sb="0" eb="1">
+      <t>ツネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウント通知をする時</t>
+    <rPh sb="4" eb="6">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「00 M 00 S」の表示を点滅させる</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テンメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウントダウン中</t>
+    <rPh sb="7" eb="8">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウント時間設定で設定した時間が「00 M 00 S」というフォーマットで表示されている</t>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「M」と「S」が0.5秒周期で点滅する</t>
+    <rPh sb="11" eb="12">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュウキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テンメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力部</t>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力部</t>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウント時間設定で設定した時間が経過した時にブザー音で経過したことをユーザ通知する
+また、ボタンを押す、または、一定回数ブザーが鳴動すると止まる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +522,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -59,7 +540,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -67,15 +548,446 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -92,6 +1004,850 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D60E8694-88E8-45F0-B481-200A2F00C928}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4023360" y="914400"/>
+          <a:ext cx="1341120" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>PIC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>マイコン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85367F97-F263-4946-A482-D34F34E3670D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1341120" y="914400"/>
+          <a:ext cx="1341120" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>押しボタン１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E523861C-7921-4A64-AE75-A3E84F1F9AF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1341120" y="1600200"/>
+          <a:ext cx="1341120" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>押しボタン２</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3151B36-405E-41F0-B56D-BDB5EB5DFDE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1341120" y="2286000"/>
+          <a:ext cx="1341120" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>押しボタン３</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD1DF613-EABC-44E3-96F8-0A7A104A89D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6692348" y="927652"/>
+          <a:ext cx="1338469" cy="463826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>ＬＣＤ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20F9917F-17B7-4475-90E3-6E9F1791ABC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1341120" y="190500"/>
+          <a:ext cx="1341120" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>入力部</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5A5C35-CFAB-4147-ADE6-5C9A6D1A3A55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="228600"/>
+          <a:ext cx="1341120" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>出力部</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDCE3FDF-F3BA-4FBE-A698-2A33BAD608E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4023360" y="228600"/>
+          <a:ext cx="1341120" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>処理部</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A88B51F-9803-498B-A49A-A556482269E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2682240" y="1143000"/>
+          <a:ext cx="1341120" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C128797-B038-4323-AA04-19F41A16FFA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2682240" y="1714500"/>
+          <a:ext cx="1341120" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4CFA2FD-DB90-4355-A1FA-9BEE051BE6D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2682240" y="1714500"/>
+          <a:ext cx="1341120" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>115957</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D96E0CA-8D16-4582-AA5B-6170EC42D6E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5353878" y="1159565"/>
+          <a:ext cx="1338470" cy="579783"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CA1F6CD-4C34-4B69-8C27-21274C9170DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6692348" y="1623392"/>
+          <a:ext cx="1338469" cy="463826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>ブザー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>115957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25C3F2FD-6E34-4832-8EF1-2993E1D5B41A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="23" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5353878" y="1739348"/>
+          <a:ext cx="1338470" cy="115957"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,13 +2147,307 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7698CAD-F49D-4EE2-BDA8-E68E94AE8D23}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="38"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="30"/>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="33"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="30"/>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="32"/>
+    </row>
+    <row r="8" spans="1:4" ht="41.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="30"/>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="32"/>
+    </row>
+    <row r="9" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="30"/>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="32"/>
+    </row>
+    <row r="10" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="30"/>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="31"/>
+    </row>
+    <row r="11" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="24"/>
+      <c r="C14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="25"/>
+      <c r="C15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B16" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B17" s="24"/>
+      <c r="C17" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B18" s="25"/>
+      <c r="C18" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="29"/>
+    </row>
+    <row r="22" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B23" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B24" s="21"/>
+      <c r="C24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="B25" s="22"/>
+      <c r="C25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="B26" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B27" s="21"/>
+      <c r="C27" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B28" s="20"/>
+      <c r="C28" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC2ED8A-E6AC-4214-970A-3292B5B327A3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/資料/Kitchen_Timer_仕様書.xlsx
+++ b/資料/Kitchen_Timer_仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\箱石\技術研修\PICマイコン研修\C編\comp.Kitchen_Timer\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA6C6B8-794A-47B3-9AF4-A796EF5D304D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3312CC40-F29C-4453-BFE2-A45DE6DACF7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13932" yWindow="0" windowWidth="23256" windowHeight="12576" xr2:uid="{75F12DC7-B026-4491-BBFB-B3B7FB378D59}"/>
+    <workbookView xWindow="-17112" yWindow="8640" windowWidth="23256" windowHeight="12576" xr2:uid="{75F12DC7-B026-4491-BBFB-B3B7FB378D59}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
   <si>
     <t>キッチンタイマー 仕様書</t>
     <rPh sb="9" eb="12">
@@ -43,14 +43,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タイトル：</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「キッチンタイマー」</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>概要：</t>
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
@@ -58,10 +50,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>このシステムは、ユーザが押しボタンを使って任意に時間を指定し、指定した時間が経過した時に、ブザー音とLCDでお知らせするシステムである。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>構成：</t>
     <rPh sb="0" eb="2">
       <t>コウセイ</t>
@@ -115,17 +103,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カウントダウン中にボタン1とボタン2を押すと、最初に設定した値になる。</t>
-    <rPh sb="19" eb="20">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>任意のカウント時間をボタンで設定できる。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>残り時間をLCDで表示する</t>
     <rPh sb="0" eb="1">
       <t>ノコ</t>
@@ -152,13 +129,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カウントの通知</t>
-    <rPh sb="5" eb="7">
-      <t>ツウチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カウント時間の設定</t>
     <rPh sb="4" eb="6">
       <t>ジカン</t>
@@ -179,10 +149,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ボタン1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>動作</t>
     <rPh sb="0" eb="2">
       <t>ドウサ</t>
@@ -230,10 +196,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ボタン2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ボタン1と一緒に押す</t>
     <rPh sb="5" eb="7">
       <t>イッショ</t>
@@ -244,10 +206,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ボタン3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「分」カウントを1増やす、カウント通知を解除する</t>
     <rPh sb="1" eb="2">
       <t>フン</t>
@@ -497,8 +455,108 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カウント時間設定で設定した時間が経過した時にブザー音で経過したことをユーザ通知する
+    <t>ユーザが押しボタンを使って任意に時間を指定し、指定した時間が経過した時に、ブザー音とLCDで通知するシステム</t>
+    <rPh sb="46" eb="48">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムの仕様：</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定できるカウント時間</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00m01s ~ 99m59s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>任意にカウントする時間をボタンで設定できる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秒ボタン</t>
+    <rPh sb="0" eb="1">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分ボタン</t>
+    <rPh sb="0" eb="1">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタートストップボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウント時間設定で設定した時間が経過した時にブザー音で経過したことをユーザに通知する
 また、ボタンを押す、または、一定回数ブザーが鳴動すると止まる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アラームの鳴動</t>
+    <rPh sb="5" eb="7">
+      <t>メイドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウントダウン中に指定のボタン2つを押すと、カウントダウンがストップし、カウントダウンが始まる前のカウント時間が設定される。
+カウントダウンがストップ中だと、00M00Sに設定される。</t>
+    <rPh sb="9" eb="11">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>セッテイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -875,119 +933,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2147,288 +2205,303 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7698CAD-F49D-4EE2-BDA8-E68E94AE8D23}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.8984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+    </row>
+    <row r="3" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="30" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="30" t="s">
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="33"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="27"/>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="41"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="27"/>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="39"/>
+    </row>
+    <row r="7" spans="1:4" ht="41.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="27"/>
+      <c r="B7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="39"/>
+    </row>
+    <row r="8" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="27"/>
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C8" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="39"/>
+    </row>
+    <row r="9" spans="1:4" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="27"/>
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="38"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="30"/>
-      <c r="B6" s="3" t="s">
+      <c r="C9" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="37"/>
+    </row>
+    <row r="10" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="27"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="22"/>
+      <c r="C13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="23"/>
+      <c r="C14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="D14" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B16" s="22"/>
+      <c r="C16" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B17" s="23"/>
+      <c r="C17" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="33"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="30"/>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="32"/>
-    </row>
-    <row r="8" spans="1:4" ht="41.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="30"/>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="32"/>
-    </row>
-    <row r="9" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="30"/>
-      <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="32"/>
-    </row>
-    <row r="10" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="30"/>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="31"/>
-    </row>
-    <row r="11" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="40" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B21" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B22" s="19"/>
+      <c r="C22" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B13" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B14" s="24"/>
-      <c r="C14" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="11" t="s">
+    <row r="23" spans="1:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="B23" s="20"/>
+      <c r="C23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="B24" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B25" s="19"/>
+      <c r="C25" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B15" s="25"/>
-      <c r="C15" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B16" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B17" s="24"/>
-      <c r="C17" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B18" s="25"/>
-      <c r="C18" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="29"/>
-    </row>
-    <row r="22" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B23" s="28" t="s">
+      <c r="D25" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="10" t="s">
+    </row>
+    <row r="26" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="18"/>
+      <c r="C26" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B24" s="21"/>
-      <c r="C24" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="D26" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="36" x14ac:dyDescent="0.45">
-      <c r="B25" s="22"/>
-      <c r="C25" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="36" x14ac:dyDescent="0.45">
-      <c r="B26" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="8" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="42"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="42" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B27" s="21"/>
-      <c r="C27" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="20"/>
-      <c r="C28" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="D29" s="42"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C31" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B3:D3"/>
+  <mergeCells count="10">
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B2:D2"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
